--- a/Elijah_inflation.xlsx
+++ b/Elijah_inflation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\My Drive\Dashboard_Deployed\macropredict2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F728F10-7EA1-4AC0-B817-37B8D9CA00BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E62B2DD-645D-4E79-9D64-83BB31DEE65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{54000EAB-56B4-41E3-A6EB-D4218010B248}"/>
   </bookViews>
@@ -8855,7 +8855,7 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
